--- a/basedb.xlsx
+++ b/basedb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\workspace\dnfm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\dnfm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D343B4AE-8715-4182-BBA6-BC61E8A0820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F1D5A-A9E1-4336-B415-9DE1F705F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10950" yWindow="7725" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="19" r:id="rId1"/>
@@ -2601,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE8943A-C1A0-40D6-BA88-F479307213CB}">
   <dimension ref="A1:T320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K320" sqref="K320"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14031,7 +14031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7726A29A-6E6F-4D55-A476-6DFC7DD4734D}">
   <dimension ref="A1:AL126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AB14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
